--- a/training_schedule_updated.xlsx
+++ b/training_schedule_updated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ron Tohar\Desktop\הכשרה\CV_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C947EC6C-ED18-4C01-9A19-0450B3DC6D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10F317C-9019-449F-B718-93475C4E6808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="D5">
         <f>SUM(D6:D11)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -573,6 +573,9 @@
       </c>
       <c r="C11">
         <v>5</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.35">

--- a/training_schedule_updated.xlsx
+++ b/training_schedule_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ron Tohar\Desktop\הכשרה\CV_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10F317C-9019-449F-B718-93475C4E6808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A788F5A-A5EA-4BA1-8C41-22446266D96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -508,7 +508,8 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <f>SUM(C6:C11)</f>
+        <v>16.5</v>
       </c>
       <c r="D5">
         <f>SUM(D6:D11)</f>
@@ -587,7 +588,7 @@
       </c>
       <c r="D12">
         <f>SUM(D13:D20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -597,12 +598,18 @@
       <c r="C13">
         <v>0.5</v>
       </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="D14">
         <v>0.5</v>
       </c>
     </row>

--- a/training_schedule_updated.xlsx
+++ b/training_schedule_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ron Tohar\Desktop\הכשרה\CV_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A788F5A-A5EA-4BA1-8C41-22446266D96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F360F3-E109-4962-A155-F040D2F7292F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -588,7 +588,7 @@
       </c>
       <c r="D12">
         <f>SUM(D13:D20)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -620,12 +620,18 @@
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16">
+        <v>1.5</v>
+      </c>
+      <c r="D16">
         <v>1.5</v>
       </c>
     </row>

--- a/training_schedule_updated.xlsx
+++ b/training_schedule_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ron Tohar\Desktop\הכשרה\CV_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F360F3-E109-4962-A155-F040D2F7292F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5EE31B-CED6-48A2-9386-FB6C005E2C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -588,7 +588,7 @@
       </c>
       <c r="D12">
         <f>SUM(D13:D20)</f>
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -640,6 +640,9 @@
         <v>19</v>
       </c>
       <c r="C17">
+        <v>1.5</v>
+      </c>
+      <c r="D17">
         <v>1.5</v>
       </c>
     </row>

--- a/training_schedule_updated.xlsx
+++ b/training_schedule_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ron Tohar\Desktop\הכשרה\CV_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5EE31B-CED6-48A2-9386-FB6C005E2C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43556C5C-0C27-4545-A825-360B78B72B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -588,7 +588,7 @@
       </c>
       <c r="D12">
         <f>SUM(D13:D20)</f>
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -652,6 +652,9 @@
       </c>
       <c r="C18">
         <v>3</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
